--- a/Template.xlsx
+++ b/Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\react_backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A7B60DE-DDAA-442F-94A1-F031CDC7242D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CD0168E-1259-4794-962B-064DA1D199EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4980" yWindow="3060" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -105,14 +105,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -124,6 +118,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -146,51 +146,49 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
+      <xdr:colOff>518160</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="radijator">
+        <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA6D5FB8-7A17-DF1B-9B6A-E2AFFCD39776}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="542925" y="638175"/>
-          <a:ext cx="819150" cy="752475"/>
+          <a:off x="518160" y="548640"/>
+          <a:ext cx="960120" cy="960120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -487,328 +485,328 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:J96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="6" style="3" customWidth="1"/>
-    <col min="3" max="3" width="48.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="5.28515625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="5.140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="5.5703125" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="10.5546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6" style="2" customWidth="1"/>
+    <col min="3" max="3" width="48.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="5.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="5.109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="5.5546875" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:10" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="J9" s="7"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C10" s="3" t="s">
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C5" s="3"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C13" s="8"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C14" s="8"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C15" s="8"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C16" s="8"/>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17" s="8"/>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C18" s="8"/>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C19" s="8"/>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C20" s="8"/>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C21" s="8"/>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C22" s="8"/>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C23" s="8"/>
-    </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C24" s="8"/>
-    </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C25" s="8"/>
-    </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C26" s="8"/>
-    </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C27" s="8"/>
-    </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C28" s="8"/>
-    </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C29" s="8"/>
-    </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C30" s="8"/>
-    </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C31" s="8"/>
-    </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C32" s="8"/>
-    </row>
-    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C33" s="8"/>
-    </row>
-    <row r="34" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C34" s="8"/>
-    </row>
-    <row r="35" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C35" s="8"/>
-    </row>
-    <row r="36" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C36" s="8"/>
-    </row>
-    <row r="37" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C37" s="8"/>
-    </row>
-    <row r="38" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C38" s="8"/>
-    </row>
-    <row r="39" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C39" s="8"/>
-    </row>
-    <row r="40" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C40" s="8"/>
-    </row>
-    <row r="41" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C41" s="8"/>
-    </row>
-    <row r="42" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C42" s="8"/>
-    </row>
-    <row r="43" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C43" s="8"/>
-    </row>
-    <row r="44" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C44" s="8"/>
-    </row>
-    <row r="45" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C45" s="8"/>
-    </row>
-    <row r="46" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C46" s="8"/>
-    </row>
-    <row r="47" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C47" s="8"/>
-      <c r="H47" s="9"/>
-    </row>
-    <row r="48" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C48" s="8"/>
-      <c r="H48" s="9"/>
-    </row>
-    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C49" s="8"/>
-    </row>
-    <row r="50" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C50" s="8"/>
-    </row>
-    <row r="51" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C51" s="8"/>
-    </row>
-    <row r="52" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C52" s="8"/>
-    </row>
-    <row r="53" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C53" s="8"/>
-    </row>
-    <row r="54" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C54" s="8"/>
-      <c r="H54" s="9"/>
-    </row>
-    <row r="55" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C55" s="8"/>
-      <c r="H55" s="9"/>
-    </row>
-    <row r="56" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C56" s="8"/>
-      <c r="H56" s="9"/>
-    </row>
-    <row r="57" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C57" s="8"/>
-    </row>
-    <row r="58" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C58" s="8"/>
-    </row>
-    <row r="59" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C59" s="8"/>
-    </row>
-    <row r="60" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C60" s="8"/>
-    </row>
-    <row r="61" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C61" s="8"/>
-    </row>
-    <row r="62" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C62" s="8"/>
-    </row>
-    <row r="63" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C63" s="8"/>
-    </row>
-    <row r="64" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C64" s="8"/>
-    </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C65" s="8"/>
-    </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C66" s="8"/>
-    </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C67" s="8"/>
-    </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C68" s="8"/>
-    </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C69" s="8"/>
-    </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C70" s="8"/>
-    </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C71" s="8"/>
-    </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C72" s="8"/>
-    </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C73" s="8"/>
-    </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C74" s="8"/>
-    </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C75" s="8"/>
-    </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C76" s="8"/>
-    </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C77" s="8"/>
-    </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C78" s="8"/>
-    </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C79" s="8"/>
-    </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C80" s="8"/>
-    </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C81" s="8"/>
-    </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C82" s="8"/>
-    </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C83" s="8"/>
-    </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C84" s="8"/>
-    </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C85" s="8"/>
-    </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C86" s="8"/>
-    </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C87" s="8"/>
-    </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C88" s="8"/>
-    </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C89" s="8"/>
-    </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C90" s="8"/>
-    </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C91" s="8"/>
-    </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C93" s="10"/>
-    </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C94" s="8"/>
-    </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C95" s="8"/>
-    </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C96" s="8"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C13" s="6"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C14" s="6"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C15" s="6"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C16" s="6"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C17" s="6"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C18" s="6"/>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C19" s="6"/>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C20" s="6"/>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C21" s="6"/>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C22" s="6"/>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C23" s="6"/>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C24" s="6"/>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C25" s="6"/>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C26" s="6"/>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C27" s="6"/>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C28" s="6"/>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C29" s="6"/>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C30" s="6"/>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C31" s="6"/>
+    </row>
+    <row r="32" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C32" s="6"/>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C33" s="6"/>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C34" s="6"/>
+    </row>
+    <row r="35" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C35" s="6"/>
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C36" s="6"/>
+    </row>
+    <row r="37" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C37" s="6"/>
+    </row>
+    <row r="38" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C38" s="6"/>
+    </row>
+    <row r="39" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C39" s="6"/>
+    </row>
+    <row r="40" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C40" s="6"/>
+    </row>
+    <row r="41" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C41" s="6"/>
+    </row>
+    <row r="42" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C42" s="6"/>
+    </row>
+    <row r="43" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C43" s="6"/>
+    </row>
+    <row r="44" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C44" s="6"/>
+    </row>
+    <row r="45" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C45" s="6"/>
+    </row>
+    <row r="46" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C46" s="6"/>
+    </row>
+    <row r="47" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C47" s="6"/>
+      <c r="H47" s="7"/>
+    </row>
+    <row r="48" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C48" s="6"/>
+      <c r="H48" s="7"/>
+    </row>
+    <row r="49" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C49" s="6"/>
+    </row>
+    <row r="50" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C50" s="6"/>
+    </row>
+    <row r="51" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C51" s="6"/>
+    </row>
+    <row r="52" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C52" s="6"/>
+    </row>
+    <row r="53" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C53" s="6"/>
+    </row>
+    <row r="54" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C54" s="6"/>
+      <c r="H54" s="7"/>
+    </row>
+    <row r="55" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C55" s="6"/>
+      <c r="H55" s="7"/>
+    </row>
+    <row r="56" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C56" s="6"/>
+      <c r="H56" s="7"/>
+    </row>
+    <row r="57" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C57" s="6"/>
+    </row>
+    <row r="58" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C58" s="6"/>
+    </row>
+    <row r="59" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C59" s="6"/>
+    </row>
+    <row r="60" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C60" s="6"/>
+    </row>
+    <row r="61" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C61" s="6"/>
+    </row>
+    <row r="62" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C62" s="6"/>
+    </row>
+    <row r="63" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C63" s="6"/>
+    </row>
+    <row r="64" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C64" s="6"/>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C65" s="6"/>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C66" s="6"/>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C67" s="6"/>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C68" s="6"/>
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C69" s="6"/>
+    </row>
+    <row r="70" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C70" s="6"/>
+    </row>
+    <row r="71" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C71" s="6"/>
+    </row>
+    <row r="72" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C72" s="6"/>
+    </row>
+    <row r="73" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C73" s="6"/>
+    </row>
+    <row r="74" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C74" s="6"/>
+    </row>
+    <row r="75" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C75" s="6"/>
+    </row>
+    <row r="76" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C76" s="6"/>
+    </row>
+    <row r="77" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C77" s="6"/>
+    </row>
+    <row r="78" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C78" s="6"/>
+    </row>
+    <row r="79" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C79" s="6"/>
+    </row>
+    <row r="80" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C80" s="6"/>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C81" s="6"/>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C82" s="6"/>
+    </row>
+    <row r="83" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C83" s="6"/>
+    </row>
+    <row r="84" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C84" s="6"/>
+    </row>
+    <row r="85" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C85" s="6"/>
+    </row>
+    <row r="86" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C86" s="6"/>
+    </row>
+    <row r="87" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C87" s="6"/>
+    </row>
+    <row r="88" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C88" s="6"/>
+    </row>
+    <row r="89" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C89" s="6"/>
+    </row>
+    <row r="90" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C90" s="6"/>
+    </row>
+    <row r="91" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C91" s="6"/>
+    </row>
+    <row r="93" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C93" s="8"/>
+    </row>
+    <row r="94" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C94" s="6"/>
+    </row>
+    <row r="95" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C95" s="6"/>
+    </row>
+    <row r="96" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C96" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -828,7 +826,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -840,7 +838,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
